--- a/Техмап/Техмап.xlsx
+++ b/Техмап/Техмап.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>№</t>
   </si>
@@ -34,6 +34,45 @@
   </si>
   <si>
     <t>Microsoft PowerPoint</t>
+  </si>
+  <si>
+    <t>Составить технологическую карту проекта</t>
+  </si>
+  <si>
+    <t>Microsoft Excel</t>
+  </si>
+  <si>
+    <t>Создать репозиторий на GitHub</t>
+  </si>
+  <si>
+    <t>Сайт https://github.com/</t>
+  </si>
+  <si>
+    <t>Visual Studio 2017</t>
+  </si>
+  <si>
+    <t>Создать проект ASCII Art Editor в Visual Studio, соединить его с репозиторием GitHub</t>
+  </si>
+  <si>
+    <t>Создать интерфейс программы с помощью Windows Forms</t>
+  </si>
+  <si>
+    <t>Visual Studio 2017, Windows Forms</t>
+  </si>
+  <si>
+    <t>Сделать так, чтобы при открытии программы генерировались "поля для символов"</t>
+  </si>
+  <si>
+    <t>Дать возможность сохранить файл</t>
+  </si>
+  <si>
+    <t>Дать возможность открыть файл</t>
+  </si>
+  <si>
+    <t>Добавить кнопку "Об авторе", которая будет выдавать информацию о создателе (Не, ну запатентовать проект-то надо)</t>
+  </si>
+  <si>
+    <t>Сделать презентацию о проекте</t>
   </si>
 </sst>
 </file>
@@ -88,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -108,11 +147,24 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -125,15 +177,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -192,17 +235,105 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>664632</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2615949</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3190875" y="2779182"/>
+          <a:ext cx="2596899" cy="1202268"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>10967</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>186</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3181350" y="4316267"/>
+          <a:ext cx="2619375" cy="1398919"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:D6" totalsRowShown="0">
-  <autoFilter ref="A1:D6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:D11" totalsRowShown="0">
+  <autoFilter ref="A1:D11"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="№" dataDxfId="0"/>
-    <tableColumn id="2" name="Содержание операции" dataDxfId="1"/>
-    <tableColumn id="3" name="Эксиз" dataDxfId="3"/>
-    <tableColumn id="4" name="Оборудование, инструменты и приспособления" dataDxfId="2"/>
+    <tableColumn id="1" name="№" dataDxfId="3"/>
+    <tableColumn id="2" name="Содержание операции" dataDxfId="2"/>
+    <tableColumn id="3" name="Эксиз" dataDxfId="1"/>
+    <tableColumn id="4" name="Оборудование, инструменты и приспособления" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -495,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,37 +658,121 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="2"/>
+    <row r="3" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="2"/>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="2"/>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="2"/>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Техмап/Техмап.xlsx
+++ b/Техмап/Техмап.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>№</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>Добавить кнопку "Об авторе", которая будет выдавать информацию о создателе (Не, ну запатентовать проект-то надо)</t>
-  </si>
-  <si>
-    <t>Сделать презентацию о проекте</t>
   </si>
 </sst>
 </file>
@@ -95,7 +92,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,6 +111,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -127,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -148,6 +151,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -629,7 +641,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,17 +774,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3" t="s">
-        <v>5</v>
-      </c>
+    <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Техмап/Техмап.xlsx
+++ b/Техмап/Техмап.xlsx
@@ -251,8 +251,8 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>664632</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
@@ -281,8 +281,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3190875" y="2779182"/>
-          <a:ext cx="2596899" cy="1202268"/>
+          <a:off x="3190875" y="3705225"/>
+          <a:ext cx="2596899" cy="1514475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -327,6 +327,270 @@
         <a:xfrm>
           <a:off x="3181350" y="4316267"/>
           <a:ext cx="2619375" cy="1398919"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2621728</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1581149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3181351" y="2133600"/>
+          <a:ext cx="2612202" cy="1562099"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2622161</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171825" y="6629401"/>
+          <a:ext cx="2622161" cy="1943099"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1943099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5289</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171825" y="8572499"/>
+          <a:ext cx="2634189" cy="1085851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2600325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1388745</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171825" y="9658350"/>
+          <a:ext cx="2600325" cy="1388745"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1961271</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Рисунок 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171826" y="11049001"/>
+          <a:ext cx="2638424" cy="1961270"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2619375</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1643659</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Рисунок 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171825" y="13020676"/>
+          <a:ext cx="2619375" cy="1643658"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -640,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,7 +942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -714,7 +978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -726,7 +990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -738,7 +1002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -750,7 +1014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -762,7 +1026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
